--- a/数据整理/stocks/A股/上证主板/600419-天润乳业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600419-天润乳业.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>010999</t>
-  </si>
-  <si>
-    <t>兴华瑞丰混合A</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>29.86</t>
-  </si>
-  <si>
-    <t>3.72</t>
-  </si>
-  <si>
-    <t>0.0082</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600419-天润乳业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600419-天润乳业.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,141 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600419-天润乳业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600419-天润乳业.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -678,7 +679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,17 +690,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -709,14 +730,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.34</v>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4504</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -725,13 +768,195 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600419-天润乳业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600419-天润乳业.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -887,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,17 +899,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -918,14 +939,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.7</v>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4474</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -934,14 +977,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.34</v>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -950,13 +1015,249 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600419-天润乳业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600419-天润乳业.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,91 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010999</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴华瑞丰混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>29.86</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -548,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003714</t>
+          <t>003713</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合C</t>
+          <t>英大睿盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.40</t>
+          <t>90.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.18</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1974</t>
+          <t>0.4474</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -637,36 +643,188 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003713</t>
+          <t>003714</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合A</t>
+          <t>英大睿盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.40</t>
+          <t>90.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.18</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1436</t>
+          <t>0.1731</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -888,7 +1046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -939,36 +1097,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003713</t>
+          <t>003714</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合A</t>
+          <t>英大睿盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>87.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>7.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4474</t>
+          <t>0.1974</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -977,188 +1135,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003714</t>
+          <t>003713</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合C</t>
+          <t>英大睿盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>87.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>7.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1731</t>
+          <t>0.1436</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>012521</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>英大稳固增强核心一年持有混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>28.66</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0503</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>012522</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>英大稳固增强核心一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>28.66</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0313</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001607</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>英大策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0268</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001608</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>英大策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1172,96 +1178,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600419-天润乳业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600419-天润乳业.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.73</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.34</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -549,6 +566,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8156</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2686</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160323</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013360</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -832,7 +1513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1040,7 +1721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1172,7 +1853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600419-天润乳业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600419-天润乳业.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>2.98</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>0.73</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.34</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -566,6 +583,1012 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3311</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3242</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1821</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014422</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1229,7 +2252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1513,7 +2536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1721,7 +2744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1853,7 +2876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
